--- a/Diana Kudley/Dysynchtos Project Asset List.xlsx
+++ b/Diana Kudley/Dysynchtos Project Asset List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Interactable Characters" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
   <si>
     <t>In progress</t>
   </si>
@@ -57,21 +57,9 @@
     <t>Asset</t>
   </si>
   <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>legs</t>
-  </si>
-  <si>
-    <t>helmet</t>
-  </si>
-  <si>
     <t>Not Started/Assigned To</t>
   </si>
   <si>
-    <t>sword</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -81,45 +69,18 @@
     <t>Sprites</t>
   </si>
   <si>
-    <t>bushes</t>
-  </si>
-  <si>
-    <t>trees</t>
-  </si>
-  <si>
-    <t>mountains</t>
-  </si>
-  <si>
-    <t>grass</t>
-  </si>
-  <si>
-    <t>windmill</t>
-  </si>
-  <si>
-    <t>door to windmill</t>
-  </si>
-  <si>
     <t>jade</t>
   </si>
   <si>
     <t>nathan</t>
   </si>
   <si>
-    <t>flowers (blue and red)</t>
-  </si>
-  <si>
     <t>During Game</t>
   </si>
   <si>
     <t>Home Screen</t>
   </si>
   <si>
-    <t>fly</t>
-  </si>
-  <si>
-    <t>flowers (blue, yellow, red, purple)</t>
-  </si>
-  <si>
     <t>Death Screen</t>
   </si>
   <si>
@@ -135,109 +96,184 @@
     <t>(death screen) "Try Again"</t>
   </si>
   <si>
-    <t>body (big and small)</t>
-  </si>
-  <si>
-    <t>wings (big and small)</t>
-  </si>
-  <si>
-    <t>windmill base</t>
-  </si>
-  <si>
-    <t>buttons</t>
-  </si>
-  <si>
-    <t>flies</t>
-  </si>
-  <si>
-    <t>chirping</t>
-  </si>
-  <si>
-    <t>grass flutter</t>
-  </si>
-  <si>
     <t>max (nathan maybe)</t>
   </si>
   <si>
     <t>Sounds</t>
   </si>
   <si>
-    <t>clouds</t>
-  </si>
-  <si>
-    <t>health bar</t>
-  </si>
-  <si>
     <t>(in game) "Health"</t>
   </si>
   <si>
-    <t>wagon</t>
-  </si>
-  <si>
-    <t>white particles (death)</t>
-  </si>
-  <si>
-    <t>green particles (always)</t>
-  </si>
-  <si>
-    <t>trees (different/transparency)</t>
-  </si>
-  <si>
-    <t>practice dummy</t>
-  </si>
-  <si>
-    <t>grass ruffle</t>
-  </si>
-  <si>
     <t>End Screen</t>
   </si>
   <si>
-    <t>button</t>
-  </si>
-  <si>
     <t>(end screen) "The End"</t>
   </si>
   <si>
     <t>(end screen) "Replay"</t>
   </si>
   <si>
-    <t>windmill sails</t>
-  </si>
-  <si>
-    <t>knight</t>
-  </si>
-  <si>
-    <t>training dummy</t>
-  </si>
-  <si>
-    <t>king fly</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>crickets</t>
-  </si>
-  <si>
-    <t>walking</t>
-  </si>
-  <si>
-    <t>hitting (dummy and flies)</t>
-  </si>
-  <si>
-    <t>breaking dummy</t>
-  </si>
-  <si>
-    <t>taking damage</t>
-  </si>
-  <si>
-    <t>character death sound</t>
-  </si>
-  <si>
-    <t>jumping</t>
-  </si>
-  <si>
-    <t>windmill door</t>
+    <t>sprite_tree_[#]</t>
+  </si>
+  <si>
+    <t>sprite_bush_[#]</t>
+  </si>
+  <si>
+    <t>sprite_mountains_[#]</t>
+  </si>
+  <si>
+    <t>sprite_grass_[#]</t>
+  </si>
+  <si>
+    <t>sprite_cloud_[#]</t>
+  </si>
+  <si>
+    <t>sprite_windmill_body</t>
+  </si>
+  <si>
+    <t>sprite_windmill_sails</t>
+  </si>
+  <si>
+    <t>sprite_windmill_door</t>
+  </si>
+  <si>
+    <t>sprite_health bar</t>
+  </si>
+  <si>
+    <t>sprite_wagon</t>
+  </si>
+  <si>
+    <t>sprite_practice dummy</t>
+  </si>
+  <si>
+    <t>sprite_flower_tall_yellow</t>
+  </si>
+  <si>
+    <t>sprite_flower_rectangle_red</t>
+  </si>
+  <si>
+    <t>sprite_flower_tall_yellow_double</t>
+  </si>
+  <si>
+    <t>sprite_flower_square_blue</t>
+  </si>
+  <si>
+    <t>sprite_flower_circle_purple</t>
+  </si>
+  <si>
+    <t>sprite_flower_circle_red</t>
+  </si>
+  <si>
+    <t>sound_grass_ruffle</t>
+  </si>
+  <si>
+    <t>sound_crickets</t>
+  </si>
+  <si>
+    <t>sound_chirping</t>
+  </si>
+  <si>
+    <t>sound_walking</t>
+  </si>
+  <si>
+    <t>sound_hitting</t>
+  </si>
+  <si>
+    <t>sound_breaking_dummy</t>
+  </si>
+  <si>
+    <t>sound_taking damage</t>
+  </si>
+  <si>
+    <t>sound_player_death</t>
+  </si>
+  <si>
+    <t>sound_jumping</t>
+  </si>
+  <si>
+    <t>sound_windmill_door</t>
+  </si>
+  <si>
+    <t>sprite_fly</t>
+  </si>
+  <si>
+    <t>sprite_flower_circle_yellow</t>
+  </si>
+  <si>
+    <t>sprite_button_yellow</t>
+  </si>
+  <si>
+    <t>sound_button</t>
+  </si>
+  <si>
+    <t>sound_fly</t>
+  </si>
+  <si>
+    <t>sound_music</t>
+  </si>
+  <si>
+    <t>sprite_button</t>
+  </si>
+  <si>
+    <t>prefab_tree_[#]</t>
+  </si>
+  <si>
+    <t>prefab_bush_[#]</t>
+  </si>
+  <si>
+    <t>prefab_mountain_[#]</t>
+  </si>
+  <si>
+    <t>prefab_windmill</t>
+  </si>
+  <si>
+    <t>sprite_knight_body</t>
+  </si>
+  <si>
+    <t>sprite_knight_legs</t>
+  </si>
+  <si>
+    <t>sprite_knight_helmet</t>
+  </si>
+  <si>
+    <t>sprite_knight_sword</t>
+  </si>
+  <si>
+    <t>sprite_fly_small_body</t>
+  </si>
+  <si>
+    <t>sprite_fly_king_body</t>
+  </si>
+  <si>
+    <t>sprite_fly_small_wings</t>
+  </si>
+  <si>
+    <t>sprite_fly_king_wings</t>
+  </si>
+  <si>
+    <t>sprite_fly_small_green particles</t>
+  </si>
+  <si>
+    <t>sprite_fly_king_green particles</t>
+  </si>
+  <si>
+    <t>sprite_fly_small_white particles</t>
+  </si>
+  <si>
+    <t>sprite_fly_king_white particles</t>
+  </si>
+  <si>
+    <t>prefab_knight</t>
+  </si>
+  <si>
+    <t>prefab_fly_small</t>
+  </si>
+  <si>
+    <t>prefab_training dummy</t>
+  </si>
+  <si>
+    <t>prefab_fly_king</t>
   </si>
 </sst>
 </file>
@@ -630,14 +666,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
@@ -654,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -694,10 +730,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -707,10 +743,10 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -720,10 +756,10 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -733,10 +769,10 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -754,7 +790,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -774,13 +810,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -790,10 +826,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -803,10 +839,10 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -816,10 +852,10 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -827,20 +863,23 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -850,10 +889,10 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -863,10 +902,10 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
@@ -875,39 +914,59 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -926,12 +985,16 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1115,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1201,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1176,7 +1239,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1208,15 +1271,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1230,12 +1293,12 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1249,12 +1312,12 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1268,12 +1331,12 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1287,12 +1350,12 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1306,12 +1369,12 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1325,12 +1388,12 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1344,12 +1407,12 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1363,12 +1426,12 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1380,12 +1443,15 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="3"/>
@@ -1396,12 +1462,15 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="3"/>
@@ -1412,12 +1481,15 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="3"/>
@@ -1428,6 +1500,15 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="3"/>
@@ -1438,14 +1519,12 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1461,12 +1540,12 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1478,13 +1557,14 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="5"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1496,13 +1576,14 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1514,12 +1595,9 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="3"/>
@@ -1532,11 +1610,14 @@
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1550,11 +1631,12 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1568,11 +1650,12 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1586,11 +1669,12 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1604,11 +1688,12 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1622,6 +1707,13 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1634,11 +1726,14 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1651,8 +1746,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1664,15 +1764,14 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1686,10 +1785,10 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1719,14 +1818,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1740,12 +1835,8 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1758,14 +1849,18 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1779,12 +1874,14 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1796,19 +1893,32 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D38" s="3"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1816,47 +1926,56 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A41" s="4"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D42" s="3"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1864,12 +1983,14 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1878,6 +1999,13 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1885,11 +2013,13 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1908,14 +2038,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1934,13 +2060,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -1950,12 +2076,8 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1963,6 +2085,15 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1970,14 +2101,12 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="A53" s="6"/>
       <c r="B53" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1987,12 +2116,8 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2000,13 +2125,11 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2015,12 +2138,8 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -2028,12 +2147,14 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B57" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2042,12 +2163,9 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2055,6 +2173,15 @@
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2062,14 +2189,12 @@
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A60" s="6"/>
       <c r="B60" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2079,12 +2204,8 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2092,12 +2213,14 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B62" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2108,10 +2231,10 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2121,8 +2244,12 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2131,8 +2258,12 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2141,8 +2272,12 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2151,8 +2286,12 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2170,9 +2309,15 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2181,8 +2326,12 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -2191,8 +2340,12 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -2201,8 +2354,12 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>

--- a/Diana Kudley/Dysynchtos Project Asset List.xlsx
+++ b/Diana Kudley/Dysynchtos Project Asset List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Interactable Characters" sheetId="1" r:id="rId1"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2638,18 +2638,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2671,6 +2671,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2AA6DC-D7DC-43A1-8030-BE38C0100496}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515DB3B-AFD4-479F-850C-E15ACF9C8EE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2684,12 +2692,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2AA6DC-D7DC-43A1-8030-BE38C0100496}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Diana Kudley/Dysynchtos Project Asset List.xlsx
+++ b/Diana Kudley/Dysynchtos Project Asset List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Interactable Characters" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
   <si>
     <t>In progress</t>
   </si>
@@ -213,9 +213,6 @@
     <t>sound_music</t>
   </si>
   <si>
-    <t>sprite_button</t>
-  </si>
-  <si>
     <t>prefab_tree_[#]</t>
   </si>
   <si>
@@ -274,13 +271,22 @@
   </si>
   <si>
     <t>prefab_fly_king</t>
+  </si>
+  <si>
+    <t>(diana helping when needed)</t>
+  </si>
+  <si>
+    <t>(there were no wing sprites?)</t>
+  </si>
+  <si>
+    <t>(home screen) "Start!"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +305,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -326,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,6 +364,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,16 +683,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
@@ -706,18 +723,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -726,29 +740,27 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -756,42 +768,50 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
-        <v>69</v>
+      <c r="B7" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -800,8 +820,10 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -809,24 +831,20 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
@@ -839,7 +857,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
@@ -850,33 +868,38 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -887,9 +910,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -902,7 +924,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -914,31 +936,32 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>22</v>
@@ -950,7 +973,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>22</v>
@@ -960,9 +983,8 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>22</v>
@@ -973,6 +995,13 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -985,8 +1014,9 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1178,16 +1208,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
@@ -1298,7 +1328,9 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1861,7 +1893,9 @@
       <c r="D36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1882,7 +1916,9 @@
       <c r="D37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1903,7 +1939,9 @@
       <c r="D38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1919,7 +1957,9 @@
       <c r="D39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1935,7 +1975,9 @@
       <c r="D40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1951,7 +1993,9 @@
       <c r="D41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -1967,7 +2011,9 @@
       <c r="D42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -1992,7 +2038,9 @@
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2006,7 +2054,9 @@
       <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2020,7 +2070,9 @@
       <c r="C46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2059,14 +2111,14 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>12</v>
+      <c r="A50" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2075,9 +2127,13 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2085,15 +2141,9 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2101,13 +2151,11 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2116,7 +2164,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2125,11 +2173,15 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2137,9 +2189,13 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -2147,15 +2203,9 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2163,38 +2213,49 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="A58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="B59" s="3" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2204,8 +2265,12 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2213,11 +2278,9 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>14</v>
@@ -2231,7 +2294,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>14</v>
@@ -2245,7 +2308,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>14</v>
@@ -2258,12 +2321,8 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2271,12 +2330,14 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B66" s="3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2287,10 +2348,10 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2300,8 +2361,12 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2309,11 +2374,9 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>22</v>
@@ -2326,12 +2389,8 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -2340,11 +2399,9 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>22</v>
+      <c r="B71" s="3"/>
+      <c r="C71" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2354,12 +2411,8 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -2367,42 +2420,20 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
@@ -2638,18 +2669,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2671,14 +2702,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2AA6DC-D7DC-43A1-8030-BE38C0100496}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515DB3B-AFD4-479F-850C-E15ACF9C8EE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2692,4 +2715,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2AA6DC-D7DC-43A1-8030-BE38C0100496}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Diana Kudley/Dysynchtos Project Asset List.xlsx
+++ b/Diana Kudley/Dysynchtos Project Asset List.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="87">
   <si>
     <t>In progress</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>(home screen) "Start!"</t>
+  </si>
+  <si>
+    <t>prefab_door</t>
+  </si>
+  <si>
+    <t>Dear Teachers, since we don’t have a programmer, we ask for a little bit of lineance with our grade, we tried our best, thank you!</t>
+  </si>
+  <si>
+    <t>chris</t>
   </si>
 </sst>
 </file>
@@ -340,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +373,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,7 +696,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,11 +745,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -761,8 +775,12 @@
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,8 +794,12 @@
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -791,8 +813,12 @@
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -806,8 +832,12 @@
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -862,9 +892,15 @@
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1024,7 +1060,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1199,6 +1235,9 @@
       <c r="G47" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1208,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,9 +1367,7 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1406,10 +1443,18 @@
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1426,8 +1471,8 @@
         <v>13</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="5"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1444,10 +1489,18 @@
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1464,9 +1517,8 @@
         <v>13</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1803,10 +1855,18 @@
       <c r="C31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1835,12 +1895,24 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -1849,14 +1921,15 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -1866,11 +1939,6 @@
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1881,21 +1949,13 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1907,18 +1967,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1929,9 +1981,11 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B38" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>13</v>
@@ -1942,14 +1996,16 @@
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>13</v>
@@ -1960,14 +2016,16 @@
       <c r="E39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>13</v>
@@ -1978,14 +2036,16 @@
       <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>13</v>
@@ -1996,14 +2056,16 @@
       <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
@@ -2014,58 +2076,68 @@
       <c r="E42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B46" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>10</v>
@@ -2073,30 +2145,52 @@
       <c r="D46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
@@ -2111,15 +2205,11 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2127,13 +2217,9 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2141,9 +2227,15 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2151,20 +2243,28 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="5"/>
+      <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2173,15 +2273,11 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2189,13 +2285,9 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -2203,9 +2295,15 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2213,146 +2311,174 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A58" s="6"/>
       <c r="B58" s="3" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B60" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2360,9 +2486,11 @@
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B68" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>22</v>
@@ -2376,7 +2504,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>22</v>
@@ -2389,8 +2517,12 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -2399,9 +2531,11 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="9" t="s">
-        <v>81</v>
+      <c r="B71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2411,15 +2545,30 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
